--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/20/seed4/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>6.458</v>
+        <v>6.907000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.356</v>
+        <v>-21.476</v>
       </c>
       <c r="B9" t="n">
-        <v>6.409999999999999</v>
+        <v>6.456</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -586,7 +586,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.08</v>
+        <v>5.785</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.194</v>
+        <v>-22.08</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-20.932</v>
+        <v>-21.115</v>
       </c>
       <c r="B16" t="n">
-        <v>6.054</v>
+        <v>6.272</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.76</v>
+        <v>-21.841</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-20.502</v>
+        <v>-20.623</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.168000000000001</v>
+        <v>7.731</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -768,7 +768,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>6.294</v>
+        <v>5.645999999999999</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-20.71</v>
+        <v>-21.334</v>
       </c>
       <c r="B26" t="n">
-        <v>6.523999999999999</v>
+        <v>6.364</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-22.058</v>
+        <v>-21.604</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.108</v>
+        <v>-21.516</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>7.408000000000001</v>
+        <v>7.259</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-21.516</v>
+        <v>-21.638</v>
       </c>
       <c r="B35" t="n">
-        <v>6.382000000000001</v>
+        <v>5.856</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.108</v>
+        <v>-20.929</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1048,7 +1048,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>6.09</v>
+        <v>5.405</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.064</v>
+        <v>-21.175</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.886</v>
+        <v>5.415</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>6.428</v>
+        <v>5.905</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1160,7 +1160,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.252</v>
+        <v>5.017999999999999</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.86</v>
+        <v>-22.124</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.214</v>
+        <v>-22.232</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1356,7 +1356,7 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>4.766</v>
+        <v>5.202</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.926</v>
+        <v>5.171</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.654</v>
+        <v>-21.291</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>6.403999999999999</v>
+        <v>6.718999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-20.49</v>
+        <v>-20.392</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-20.51</v>
+        <v>-20.743</v>
       </c>
       <c r="B78" t="n">
-        <v>7.552</v>
+        <v>6.742</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>8.766</v>
+        <v>8.299000000000001</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.784</v>
+        <v>-21.81</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.452</v>
+        <v>-21.509</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>6.192</v>
+        <v>5.509</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.5</v>
+        <v>-21.533</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1787,10 +1787,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.642</v>
+        <v>-21.684</v>
       </c>
       <c r="B97" t="n">
-        <v>4.732000000000001</v>
+        <v>5.170999999999999</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1818,7 +1818,7 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>4.715999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>7.407999999999999</v>
+        <v>7.512</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
